--- a/result/超参数实验.xlsx
+++ b/result/超参数实验.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TBM_HX\DARNN-transfer\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A68D033-EF65-4C7D-91DA-E1167FEF7D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28EA840-D05D-43D5-9FBE-17F38A4B1373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -464,6 +464,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -795,42 +798,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45" t="s">
+      <c r="L1" s="46"/>
+      <c r="M1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="45"/>
+      <c r="N1" s="46"/>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="45"/>
+      <c r="A2" s="46"/>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
@@ -869,7 +872,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3">
@@ -937,7 +940,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -973,7 +976,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1009,7 +1012,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1075,7 +1078,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1111,7 +1114,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1168,7 +1171,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
@@ -1212,7 +1215,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="44"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1254,7 +1257,7 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="44"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1293,7 +1296,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1362,7 +1365,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -1401,7 +1404,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="32.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1455,7 +1458,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3">
@@ -1496,7 +1499,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -1535,7 +1538,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="3">
         <v>3</v>
       </c>
@@ -1574,7 +1577,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="44"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="3">
         <v>4</v>
       </c>
@@ -1613,7 +1616,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="44"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -1652,7 +1655,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="44"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1706,7 +1709,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="45" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="3">
@@ -1747,7 +1750,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="44"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -1786,7 +1789,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="44"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="3">
         <v>3</v>
       </c>
@@ -1822,7 +1825,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="44"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="3">
         <v>4</v>
       </c>
@@ -1858,7 +1861,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1894,7 +1897,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1994,42 +1997,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="44" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44" t="s">
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
     </row>
     <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
@@ -2110,7 +2113,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2199,7 +2202,7 @@
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2286,7 +2289,7 @@
       <c r="AE4" s="1"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2375,7 +2378,7 @@
       <c r="AE5" s="1"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -2462,7 +2465,7 @@
       <c r="AE6" s="1"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2551,7 +2554,7 @@
       <c r="AE7" s="1"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2636,7 +2639,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2723,7 +2726,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2808,7 +2811,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2895,7 +2898,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
@@ -2980,7 +2983,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -3028,7 +3031,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
@@ -3075,17 +3078,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3133,89 +3136,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="50">
+      <c r="B1" s="51">
         <v>16</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51">
         <v>16</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51">
         <v>16</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51">
         <v>16</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51">
         <v>16</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="46">
+      <c r="K1" s="51"/>
+      <c r="L1" s="47">
         <v>16</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="49">
+      <c r="M1" s="47"/>
+      <c r="N1" s="50">
         <v>32</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="50">
+      <c r="O1" s="50"/>
+      <c r="P1" s="51">
         <v>64</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51">
         <v>64</v>
       </c>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50">
+      <c r="S1" s="51"/>
+      <c r="T1" s="51">
         <v>64</v>
       </c>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50">
+      <c r="U1" s="51"/>
+      <c r="V1" s="51">
         <v>64</v>
       </c>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50">
+      <c r="W1" s="51"/>
+      <c r="X1" s="51">
         <v>64</v>
       </c>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="46">
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="47">
         <v>64</v>
       </c>
-      <c r="AA1" s="46"/>
+      <c r="AA1" s="47"/>
       <c r="AB1" s="16"/>
-      <c r="AC1" s="46">
+      <c r="AC1" s="47">
         <v>128</v>
       </c>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46">
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47">
         <v>128</v>
       </c>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46">
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47">
         <v>128</v>
       </c>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46">
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47">
         <v>128</v>
       </c>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46">
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47">
         <v>128</v>
       </c>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46">
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47">
         <v>128</v>
       </c>
-      <c r="AN1" s="46"/>
+      <c r="AN1" s="47"/>
     </row>
     <row r="2" spans="1:40" ht="20.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="48"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="34" t="s">
         <v>24</v>
       </c>
@@ -4052,6 +4055,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="L1:M1"/>
@@ -4067,11 +4075,6 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4081,124 +4084,130 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B3C1AE-2092-4ED3-9AC2-44CE9D191A78}">
-  <dimension ref="A1:AW8"/>
+  <dimension ref="A1:AW12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.46484375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="4" max="11" width="0" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.06640625" style="39"/>
+    <col min="2" max="2" width="9.06640625" style="5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="11" width="9.06640625" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="9.06640625" style="39"/>
+    <col min="14" max="23" width="0" style="39" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="9.06640625" style="39"/>
+    <col min="26" max="35" width="0" style="39" hidden="1" customWidth="1"/>
+    <col min="36" max="37" width="9.06640625" style="39"/>
+    <col min="38" max="47" width="0" style="39" hidden="1" customWidth="1"/>
+    <col min="48" max="16384" width="9.06640625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="46">
+      <c r="B1" s="47">
         <v>0.4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47">
         <v>0.4</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46">
+      <c r="E1" s="47"/>
+      <c r="F1" s="47">
         <v>0.4</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47">
         <v>0.4</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47">
         <v>0.4</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46">
+      <c r="K1" s="47"/>
+      <c r="L1" s="47">
         <v>0.4</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46">
+      <c r="M1" s="47"/>
+      <c r="N1" s="47">
         <v>0.6</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46">
+      <c r="O1" s="47"/>
+      <c r="P1" s="47">
         <v>0.6</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47">
         <v>0.6</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46">
+      <c r="S1" s="47"/>
+      <c r="T1" s="47">
         <v>0.6</v>
       </c>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46">
+      <c r="U1" s="47"/>
+      <c r="V1" s="47">
         <v>0.6</v>
       </c>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46">
+      <c r="W1" s="47"/>
+      <c r="X1" s="47">
         <v>0.6</v>
       </c>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46">
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47">
         <v>0.8</v>
       </c>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46">
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47">
         <v>0.8</v>
       </c>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46">
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47">
         <v>0.8</v>
       </c>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46">
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47">
         <v>0.8</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46">
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47">
         <v>0.8</v>
       </c>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46">
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47">
         <v>0.8</v>
       </c>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46">
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47">
         <v>1</v>
       </c>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46">
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="47">
         <v>1</v>
       </c>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46">
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47">
         <v>1</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46">
+      <c r="AQ1" s="47"/>
+      <c r="AR1" s="47">
         <v>1</v>
       </c>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46">
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="47">
         <v>1</v>
       </c>
-      <c r="AU1" s="46"/>
-      <c r="AV1" s="46">
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47">
         <v>1</v>
       </c>
-      <c r="AW1" s="46"/>
+      <c r="AW1" s="47"/>
     </row>
     <row r="2" spans="1:49" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="48"/>
+      <c r="A2" s="49"/>
       <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
@@ -4298,7 +4307,7 @@
       <c r="AH2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="40" t="s">
+      <c r="AI2" s="44" t="s">
         <v>25</v>
       </c>
       <c r="AJ2" s="24" t="s">
@@ -4349,10 +4358,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="5">
-        <v>0.14535407721995999</v>
+        <v>0.147839710116386</v>
       </c>
       <c r="C3" s="4">
-        <v>0.72773489356040899</v>
+        <v>0.75407308340072599</v>
       </c>
       <c r="D3" s="5">
         <v>0.11883919686079</v>
@@ -4380,11 +4389,125 @@
       </c>
       <c r="L3" s="5">
         <f>AVERAGE(B3,D3,F3,H3,J3)</f>
-        <v>0.12049543857574359</v>
+        <v>0.12099256515502879</v>
       </c>
       <c r="M3" s="4">
         <f>AVERAGE(C3,E3,G3,I3,K3)</f>
-        <v>0.79275740385055493</v>
+        <v>0.79802504181861844</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.118688359856605</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.80461835861205999</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.15950179100036599</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.67497232556343001</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.12752425670623699</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0.78575171530246701</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0.104317419230937</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0.83085007965564694</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0.115406475961208</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0.80521503090858404</v>
+      </c>
+      <c r="X3" s="5">
+        <f>AVERAGE(V3,T3,R3,P3,N3)</f>
+        <v>0.1250876605510706</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>AVERAGE(W3,U3,S3,Q3,O3)</f>
+        <v>0.7802815020084376</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0.151854872703552</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0.72918945550918501</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0.13175024092197399</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0.78435745835304205</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>0.13008265197277</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>0.77241767942905404</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>0.15281492471694899</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>0.77311320602893796</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>0.11953229457139899</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>0.80383004248142198</v>
+      </c>
+      <c r="AJ3" s="5">
+        <f>AVERAGE(AH3,AF3,AD3,AB3,Z3)</f>
+        <v>0.1372069969773288</v>
+      </c>
+      <c r="AK3" s="4">
+        <f>AVERAGE(AI3,AG3,AE3,AC3,AA3)</f>
+        <v>0.77258156836032821</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>0.16457225382328</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>0.71303713321685702</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>0.13744339346885601</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>0.76103700697422005</v>
+      </c>
+      <c r="AP3" s="5">
+        <v>0.13435244560241699</v>
+      </c>
+      <c r="AQ3" s="4">
+        <v>0.76054932177066803</v>
+      </c>
+      <c r="AR3" s="5">
+        <v>0.10502468049526199</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>0.83152440190315202</v>
+      </c>
+      <c r="AT3" s="5">
+        <v>0.123757191002368</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>0.78104925155639604</v>
+      </c>
+      <c r="AV3" s="5">
+        <f>AVERAGE(AR3,AP3,AN3,AL3,AT3)</f>
+        <v>0.13302999287843659</v>
+      </c>
+      <c r="AW3" s="4">
+        <f>AVERAGE(AS3,AQ3,AO3,AM3,AU3)</f>
+        <v>0.76943942308425861</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.4">
@@ -4392,10 +4515,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="5">
-        <v>0.15023382008</v>
+        <v>0.139799654483795</v>
       </c>
       <c r="C4" s="4">
-        <v>0.74281689524649996</v>
+        <v>0.762666136026382</v>
       </c>
       <c r="D4" s="5">
         <v>0.150021687150001</v>
@@ -4423,11 +4546,125 @@
       </c>
       <c r="L4" s="5">
         <f t="shared" ref="L4:L7" si="0">AVERAGE(B4,D4,F4,H4,J4)</f>
-        <v>0.1389526292680178</v>
+        <v>0.13686579614877681</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ref="M4:M7" si="1">AVERAGE(C4,E4,G4,I4,K4)</f>
-        <v>0.77044074237346483</v>
+        <v>0.77441059052944117</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.15564271807670499</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.75014215707778897</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.15530620515346499</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.74300575256347601</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.15021905303001401</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.75246506929397505</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0.12966302037239</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0.78354692459106401</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0.122336246073246</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0.79547132551669997</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" ref="X4:X7" si="2">AVERAGE(V4,T4,R4,P4,N4)</f>
+        <v>0.142633448541164</v>
+      </c>
+      <c r="Y4" s="4">
+        <f t="shared" ref="Y4:Y7" si="3">AVERAGE(W4,U4,S4,Q4,O4)</f>
+        <v>0.7649262458086008</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0.16717079281806899</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0.73812380433082503</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.157155767083168</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0.75581780076026905</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0.15505340695381101</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0.74153557419776905</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0.155939251184463</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0.76027041673660201</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0.12532089650630901</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0.79010228812694505</v>
+      </c>
+      <c r="AJ4" s="5">
+        <f t="shared" ref="AJ4:AJ7" si="4">AVERAGE(AH4,AF4,AD4,AB4,Z4)</f>
+        <v>0.152128022909164</v>
+      </c>
+      <c r="AK4" s="4">
+        <f t="shared" ref="AK4:AK7" si="5">AVERAGE(AI4,AG4,AE4,AC4,AA4)</f>
+        <v>0.75716997683048204</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>0.167205199599266</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>0.73641338944435097</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>0.157551944255828</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>0.75496120750904006</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>0.15771090984344399</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>0.74927115440368597</v>
+      </c>
+      <c r="AR4" s="5">
+        <v>0.13276895880699099</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>0.77915598452091195</v>
+      </c>
+      <c r="AT4" s="5">
+        <v>0.128798007965087</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>0.78378839790820998</v>
+      </c>
+      <c r="AV4" s="5">
+        <f t="shared" ref="AV4:AV7" si="6">AVERAGE(AR4,AP4,AN4,AL4,AT4)</f>
+        <v>0.14880700409412317</v>
+      </c>
+      <c r="AW4" s="4">
+        <f t="shared" ref="AW4:AW7" si="7">AVERAGE(AS4,AQ4,AO4,AM4,AU4)</f>
+        <v>0.76071802675723976</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.4">
@@ -4435,10 +4672,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="5">
-        <v>0.16302123665000001</v>
+        <v>0.148873761296272</v>
       </c>
       <c r="C5" s="4">
-        <v>0.77097791433334295</v>
+        <v>0.80828259885311105</v>
       </c>
       <c r="D5" s="5">
         <v>0.10381677001714699</v>
@@ -4466,11 +4703,125 @@
       </c>
       <c r="L5" s="5">
         <f t="shared" si="0"/>
-        <v>0.1225271850808162</v>
+        <v>0.11969769001007058</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="1"/>
-        <v>0.83400623947381902</v>
+        <v>0.84146717637777257</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.112612724304199</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.85789208114147097</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.16324293613433799</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.77469214797019903</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.156596198678016</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0.78379315137863104</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0.10413067042827601</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0.87462712824344602</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0.101702742278575</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0.87318988144397702</v>
+      </c>
+      <c r="X5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.12765705436468081</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.83283887803554479</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0.16324293613433799</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0.77469214797019903</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0.119493663311004</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0.85255828499793995</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0.132383927702903</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0.827402964234352</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0.113455705344676</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0.85648809373378698</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>0.108193606138229</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>0.86345197260379702</v>
+      </c>
+      <c r="AJ5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.12735396772623001</v>
+      </c>
+      <c r="AK5" s="4">
+        <f t="shared" si="5"/>
+        <v>0.83491869270801511</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>0.16324293613433799</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>0.77469214797019903</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>0.117011345922946</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>0.83967623114585799</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>0.13715417683124501</v>
+      </c>
+      <c r="AQ5" s="4">
+        <v>0.81897382438182798</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>0.103380426764488</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>0.87272550165653195</v>
+      </c>
+      <c r="AT5" s="5">
+        <v>0.10995151102542799</v>
+      </c>
+      <c r="AU5" s="4">
+        <v>0.86514793336391405</v>
+      </c>
+      <c r="AV5" s="5">
+        <f t="shared" si="6"/>
+        <v>0.126148079335689</v>
+      </c>
+      <c r="AW5" s="4">
+        <f t="shared" si="7"/>
+        <v>0.83424312770366638</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.4">
@@ -4478,10 +4829,10 @@
         <v>21</v>
       </c>
       <c r="B6" s="5">
-        <v>0.14203183352947199</v>
+        <v>0.148337677121162</v>
       </c>
       <c r="C6" s="4">
-        <v>0.72818911075591997</v>
+        <v>0.72043696045875505</v>
       </c>
       <c r="D6" s="5">
         <v>0.120029017329216</v>
@@ -4509,11 +4860,125 @@
       </c>
       <c r="L6" s="5">
         <f t="shared" si="0"/>
-        <v>0.12011928558349561</v>
+        <v>0.1213804543018336</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="1"/>
-        <v>0.79145142138004276</v>
+        <v>0.78990099132060976</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.121124513447284</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.79432748258113794</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.16886441409587799</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.64942359924316395</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.13393379747867501</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0.75980630517005898</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0.10950868576764999</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0.81393839418888003</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0.110111840069293</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0.81477433443069402</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.12870865017175598</v>
+      </c>
+      <c r="Y6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.76645402312278699</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0.17027327418327301</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0.71863979101180997</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0.12550935149192799</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0.78753475844859999</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0.14026834070682501</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0.77602142095565796</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0.15515874326229001</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0.74863675236701899</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>0.121366620063781</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>0.800358906388282</v>
+      </c>
+      <c r="AJ6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.1425152659416194</v>
+      </c>
+      <c r="AK6" s="4">
+        <f t="shared" si="5"/>
+        <v>0.76623832583427376</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>0.17082121968269301</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>0.71650791168212802</v>
+      </c>
+      <c r="AN6" s="5">
+        <v>0.131131201982498</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>0.77262331545352902</v>
+      </c>
+      <c r="AP6" s="5">
+        <v>0.15041950345039301</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>0.76702785491943304</v>
+      </c>
+      <c r="AR6" s="5">
+        <v>0.106764696538448</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>0.82441386580467202</v>
+      </c>
+      <c r="AT6" s="5">
+        <v>0.122711107134819</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>0.78307925164699499</v>
+      </c>
+      <c r="AV6" s="5">
+        <f t="shared" si="6"/>
+        <v>0.13636954575777022</v>
+      </c>
+      <c r="AW6" s="4">
+        <f t="shared" si="7"/>
+        <v>0.77273043990135137</v>
       </c>
     </row>
     <row r="7" spans="1:49" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -4521,10 +4986,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="5">
-        <v>0.131411373615264</v>
+        <v>0.12773105502128601</v>
       </c>
       <c r="C7" s="4">
-        <v>0.757052242755889</v>
+        <v>0.74909460544586104</v>
       </c>
       <c r="D7" s="5">
         <v>0.12757021188735901</v>
@@ -4552,29 +5017,173 @@
       </c>
       <c r="L7" s="5">
         <f t="shared" si="0"/>
-        <v>0.11462220847606601</v>
+        <v>0.11388614475727041</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="1"/>
-        <v>0.78408787250518741</v>
-      </c>
-    </row>
-    <row r="8" spans="1:49" ht="14.25" thickTop="1" x14ac:dyDescent="0.4"/>
+        <v>0.78249634504318177</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.127503722906112</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.76851986348628998</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.13290199637413</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.75903068482875802</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.12049151211976999</v>
+      </c>
+      <c r="S7" s="4">
+        <v>0.77740143239498105</v>
+      </c>
+      <c r="T7" s="5">
+        <v>9.43430215120315E-2</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0.82002872228622403</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0.105401545763015</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0.78897103667259205</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1161283597350117</v>
+      </c>
+      <c r="Y7" s="4">
+        <f t="shared" si="3"/>
+        <v>0.782790347933769</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>0.135853260755538</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0.75281476974487305</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0.129746928811073</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0.76435717940330505</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0.123158305883407</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0.77227078378200498</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0.17116434872150399</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0.71016642451286305</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0.104794532060623</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0.79933968186378401</v>
+      </c>
+      <c r="AJ7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.13294347524642899</v>
+      </c>
+      <c r="AK7" s="4">
+        <f t="shared" si="5"/>
+        <v>0.75978976786136598</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>0.138269573450088</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>0.74730628728866499</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>0.12932337820529899</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>0.75766468048095703</v>
+      </c>
+      <c r="AP7" s="5">
+        <v>0.125535517930984</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>0.76718746125698001</v>
+      </c>
+      <c r="AR7" s="5">
+        <v>9.6932776272296906E-2</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>0.81660653650760595</v>
+      </c>
+      <c r="AT7" s="5">
+        <v>0.105158746242523</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>0.79630447924137104</v>
+      </c>
+      <c r="AV7" s="5">
+        <f t="shared" si="6"/>
+        <v>0.11904399842023819</v>
+      </c>
+      <c r="AW7" s="4">
+        <f t="shared" si="7"/>
+        <v>0.77701388895511581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="4"/>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="4"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="4"/>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="4"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="4"/>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="4"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -4587,6 +5196,19 @@
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/超参数实验.xlsx
+++ b/result/超参数实验.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TBM_HX\DARNN-transfer\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28EA840-D05D-43D5-9FBE-17F38A4B1373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE4D2C6-ECB1-4B40-87C1-AAAF5370C9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="改进后的模型" sheetId="2" r:id="rId2"/>
     <sheet name="隐单元数量" sheetId="3" r:id="rId3"/>
-    <sheet name="lambda" sheetId="4" r:id="rId4"/>
+    <sheet name="隐单元数量 (FSDANN)" sheetId="6" r:id="rId4"/>
+    <sheet name="lambda" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="28">
   <si>
     <t>方法\指标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -464,6 +465,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,42 +805,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="46"/>
+      <c r="N1" s="48"/>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46"/>
+      <c r="A2" s="48"/>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
@@ -872,7 +879,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3">
@@ -940,7 +947,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="46"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -976,7 +983,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="46"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1012,7 +1019,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="46"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1078,7 +1085,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="46"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1114,7 +1121,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="46"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1178,7 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
@@ -1215,7 +1222,7 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="3">
         <v>2</v>
       </c>
@@ -1257,7 +1264,7 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1296,7 +1303,7 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="45"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -1365,7 +1372,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="2">
         <v>5</v>
       </c>
@@ -1404,7 +1411,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="32.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1458,7 +1465,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="47" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3">
@@ -1499,7 +1506,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="3">
         <v>2</v>
       </c>
@@ -1538,7 +1545,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="3">
         <v>3</v>
       </c>
@@ -1577,7 +1584,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="3">
         <v>4</v>
       </c>
@@ -1616,7 +1623,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="45"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -1655,7 +1662,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="45"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1709,7 +1716,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="3">
@@ -1750,7 +1757,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="45"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="3">
         <v>2</v>
       </c>
@@ -1789,7 +1796,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="45"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="3">
         <v>3</v>
       </c>
@@ -1825,7 +1832,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="45"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="3">
         <v>4</v>
       </c>
@@ -1861,7 +1868,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="45"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -1897,7 +1904,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="45"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1997,42 +2004,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="45" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45" t="s">
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
     </row>
     <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
@@ -2113,7 +2120,7 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2202,7 +2209,7 @@
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A4" s="46"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2289,7 +2296,7 @@
       <c r="AE4" s="1"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2378,7 +2385,7 @@
       <c r="AE5" s="1"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A6" s="46"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -2465,7 +2472,7 @@
       <c r="AE6" s="1"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="48" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2554,7 +2561,7 @@
       <c r="AE7" s="1"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A8" s="46"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2639,7 +2646,7 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="48" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2726,7 +2733,7 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A10" s="46"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2811,7 +2818,7 @@
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="48" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2898,7 +2905,7 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A12" s="46"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
@@ -2983,7 +2990,7 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -3031,7 +3038,7 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A14" s="46"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
@@ -3078,17 +3085,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3103,7 +3110,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3136,89 +3143,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="51">
+      <c r="B1" s="53">
         <v>16</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53">
         <v>16</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51">
+      <c r="E1" s="53"/>
+      <c r="F1" s="53">
         <v>16</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53">
         <v>16</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51">
+      <c r="I1" s="53"/>
+      <c r="J1" s="53">
         <v>16</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="47">
+      <c r="K1" s="53"/>
+      <c r="L1" s="49">
         <v>16</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="50">
+      <c r="M1" s="49"/>
+      <c r="N1" s="52">
         <v>32</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51">
+      <c r="O1" s="52"/>
+      <c r="P1" s="53">
         <v>64</v>
       </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51">
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53">
         <v>64</v>
       </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51">
+      <c r="S1" s="53"/>
+      <c r="T1" s="53">
         <v>64</v>
       </c>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51">
+      <c r="U1" s="53"/>
+      <c r="V1" s="53">
         <v>64</v>
       </c>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51">
+      <c r="W1" s="53"/>
+      <c r="X1" s="53">
         <v>64</v>
       </c>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="47">
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="49">
         <v>64</v>
       </c>
-      <c r="AA1" s="47"/>
+      <c r="AA1" s="49"/>
       <c r="AB1" s="16"/>
-      <c r="AC1" s="47">
+      <c r="AC1" s="49">
         <v>128</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49">
         <v>128</v>
       </c>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47">
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49">
         <v>128</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47">
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49">
         <v>128</v>
       </c>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47">
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49">
         <v>128</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47">
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49">
         <v>128</v>
       </c>
-      <c r="AN1" s="47"/>
+      <c r="AN1" s="49"/>
     </row>
     <row r="2" spans="1:40" ht="20.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="34" t="s">
         <v>24</v>
       </c>
@@ -4055,11 +4062,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="L1:M1"/>
@@ -4075,6 +4077,11 @@
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4083,11 +4090,968 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD5BF67-1B8F-4766-A3BE-09211868EF2A}">
+  <dimension ref="A1:AN31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AN11" sqref="AN11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="27.796875" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" style="43" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" style="43" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="9.9296875" style="43" hidden="1" customWidth="1"/>
+    <col min="6" max="9" width="12.59765625" style="43" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.53125" style="37" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.86328125" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.06640625" style="23"/>
+    <col min="13" max="13" width="9.06640625" style="26"/>
+    <col min="16" max="16" width="10.1328125" style="37" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1328125" style="37" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="9.9296875" style="37" hidden="1" customWidth="1"/>
+    <col min="20" max="23" width="12.59765625" style="37" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="11.53125" style="37" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="10.86328125" style="37" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="9.06640625" style="41"/>
+    <col min="28" max="28" width="12.265625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.1328125" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.1328125" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="9.9296875" hidden="1" customWidth="1"/>
+    <col min="33" max="36" width="12.59765625" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="11.53125" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="10.86328125" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="11.53125" customWidth="1"/>
+    <col min="40" max="40" width="10.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="53">
+        <v>16</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53">
+        <v>16</v>
+      </c>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53">
+        <v>16</v>
+      </c>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53">
+        <v>16</v>
+      </c>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53">
+        <v>16</v>
+      </c>
+      <c r="K1" s="53"/>
+      <c r="L1" s="49">
+        <v>16</v>
+      </c>
+      <c r="M1" s="49"/>
+      <c r="N1" s="52">
+        <v>32</v>
+      </c>
+      <c r="O1" s="52"/>
+      <c r="P1" s="53">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53">
+        <v>64</v>
+      </c>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53">
+        <v>64</v>
+      </c>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53">
+        <v>64</v>
+      </c>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="49">
+        <v>64</v>
+      </c>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="49">
+        <v>128</v>
+      </c>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49">
+        <v>128</v>
+      </c>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49">
+        <v>128</v>
+      </c>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49">
+        <v>128</v>
+      </c>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49">
+        <v>128</v>
+      </c>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49">
+        <v>128</v>
+      </c>
+      <c r="AN1" s="49"/>
+    </row>
+    <row r="2" spans="1:40" ht="20.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="51"/>
+      <c r="B2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL2" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN2" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0.16789369279999999</v>
+      </c>
+      <c r="C3" s="35">
+        <v>0.74494349956509998</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0.103775836527347</v>
+      </c>
+      <c r="E3" s="35">
+        <v>0.82397018373012498</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0.124208182</v>
+      </c>
+      <c r="G3" s="35">
+        <v>0.76251244543999996</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0.15585109590999999</v>
+      </c>
+      <c r="I3" s="35">
+        <v>0.760174617</v>
+      </c>
+      <c r="J3" s="34">
+        <v>0.14776715636253299</v>
+      </c>
+      <c r="K3" s="35">
+        <v>0.74129188060759998</v>
+      </c>
+      <c r="L3" s="24">
+        <v>8.7203867733478505E-2</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0.856036156415939</v>
+      </c>
+      <c r="N3" s="24">
+        <v>8.2758478820323902E-2</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0.86241219937801294</v>
+      </c>
+      <c r="P3" s="34">
+        <v>9.5124363899229999E-2</v>
+      </c>
+      <c r="Q3" s="35">
+        <v>0.83831650000000002</v>
+      </c>
+      <c r="R3" s="34">
+        <v>0.1090773</v>
+      </c>
+      <c r="S3" s="35">
+        <v>0.81481452286242995</v>
+      </c>
+      <c r="T3" s="34">
+        <v>0.111413076519966</v>
+      </c>
+      <c r="U3" s="35">
+        <v>0.808903887867927</v>
+      </c>
+      <c r="V3" s="34">
+        <v>0.13862088322639399</v>
+      </c>
+      <c r="W3" s="35">
+        <v>0.76132006943225805</v>
+      </c>
+      <c r="X3" s="34">
+        <v>0.14695516228675001</v>
+      </c>
+      <c r="Y3" s="35">
+        <v>0.76224747299999995</v>
+      </c>
+      <c r="Z3" s="25">
+        <v>8.2795858383178697E-2</v>
+      </c>
+      <c r="AA3" s="19">
+        <v>0.86463844776153498</v>
+      </c>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="24">
+        <v>0.11693613231182</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>0.79491485655307703</v>
+      </c>
+      <c r="AE3" s="24">
+        <v>0.113954283297061</v>
+      </c>
+      <c r="AF3" s="18">
+        <v>0.81472297012805905</v>
+      </c>
+      <c r="AG3" s="24">
+        <v>0.16568861901760101</v>
+      </c>
+      <c r="AH3" s="18">
+        <v>0.75588408112000005</v>
+      </c>
+      <c r="AI3" s="24">
+        <v>0.102374427020549</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>0.83022673428058602</v>
+      </c>
+      <c r="AK3" s="24">
+        <v>0.16521902382</v>
+      </c>
+      <c r="AL3" s="18">
+        <v>0.75266140699380002</v>
+      </c>
+      <c r="AM3" s="24">
+        <v>8.4739014506339999E-2</v>
+      </c>
+      <c r="AN3" s="18">
+        <v>0.85290230810642198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="34">
+        <v>0.15939211845397899</v>
+      </c>
+      <c r="C4" s="35">
+        <v>0.740112364292144</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0.12735076248645699</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0.78761650621891</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0.13377314800000001</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0.77661155163999995</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0.143121123313</v>
+      </c>
+      <c r="I4" s="35">
+        <v>0.77690720550000003</v>
+      </c>
+      <c r="J4" s="34">
+        <v>0.1266602575778</v>
+      </c>
+      <c r="K4" s="35">
+        <v>0.79115763306617704</v>
+      </c>
+      <c r="L4" s="24">
+        <v>9.8160788416862405E-2</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0.83478607237338998</v>
+      </c>
+      <c r="N4" s="24">
+        <v>9.9380664527416201E-2</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0.82974098622798897</v>
+      </c>
+      <c r="P4" s="36">
+        <v>0.11739498299999999</v>
+      </c>
+      <c r="Q4" s="35">
+        <v>0.80537152000000001</v>
+      </c>
+      <c r="R4" s="36">
+        <v>0.12881529999999999</v>
+      </c>
+      <c r="S4" s="35">
+        <v>0.78680415450999996</v>
+      </c>
+      <c r="T4" s="36">
+        <v>0.129179462790489</v>
+      </c>
+      <c r="U4" s="35">
+        <v>0.78941105306148496</v>
+      </c>
+      <c r="V4" s="34">
+        <v>0.12606965005397699</v>
+      </c>
+      <c r="W4" s="35">
+        <v>0.79244808852672499</v>
+      </c>
+      <c r="X4" s="34">
+        <v>0.13856190442999999</v>
+      </c>
+      <c r="Y4" s="35">
+        <v>0.76262402534480001</v>
+      </c>
+      <c r="Z4" s="25">
+        <v>9.5896124839782701E-2</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>0.83924721181392603</v>
+      </c>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="25">
+        <v>0.135634660720825</v>
+      </c>
+      <c r="AD4" s="18">
+        <v>0.76872199773700001</v>
+      </c>
+      <c r="AE4" s="25">
+        <v>0.13520840000000001</v>
+      </c>
+      <c r="AF4" s="18">
+        <v>0.767508313</v>
+      </c>
+      <c r="AG4" s="25">
+        <v>0.16459281742572701</v>
+      </c>
+      <c r="AH4" s="18">
+        <v>0.73184949159622104</v>
+      </c>
+      <c r="AI4" s="24">
+        <v>0.122950069606</v>
+      </c>
+      <c r="AJ4" s="18">
+        <v>0.79659019410609999</v>
+      </c>
+      <c r="AK4" s="24">
+        <v>0.15928217768</v>
+      </c>
+      <c r="AL4" s="18">
+        <v>0.74205374710000005</v>
+      </c>
+      <c r="AM4" s="24">
+        <v>0.114395596086978</v>
+      </c>
+      <c r="AN4" s="18">
+        <v>0.799332335591316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="34">
+        <v>0.16037939488887701</v>
+      </c>
+      <c r="C5" s="35">
+        <v>0.77715544400000003</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0.10019533336162</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.86836762726306904</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0.15582342439999999</v>
+      </c>
+      <c r="G5" s="35">
+        <v>0.78424000000000005</v>
+      </c>
+      <c r="H5" s="34">
+        <v>0.14761801064009999</v>
+      </c>
+      <c r="I5" s="35">
+        <v>0.79780958592889994</v>
+      </c>
+      <c r="J5" s="34">
+        <v>0.149742782115936</v>
+      </c>
+      <c r="K5" s="35">
+        <v>0.78721284866332997</v>
+      </c>
+      <c r="L5" s="24">
+        <v>8.2644134759902899E-2</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0.89251618087291695</v>
+      </c>
+      <c r="N5" s="24">
+        <v>3.6588840186595903E-2</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0.94785760715603795</v>
+      </c>
+      <c r="P5" s="36">
+        <v>9.3498139999999993E-2</v>
+      </c>
+      <c r="Q5" s="35">
+        <v>0.87202431261539004</v>
+      </c>
+      <c r="R5" s="36">
+        <v>9.98120978474617E-2</v>
+      </c>
+      <c r="S5" s="35">
+        <v>0.87270666658878304</v>
+      </c>
+      <c r="T5" s="36">
+        <v>9.4739414751000006E-2</v>
+      </c>
+      <c r="U5" s="35">
+        <v>0.86577668785999995</v>
+      </c>
+      <c r="V5" s="34">
+        <v>0.11020297557115501</v>
+      </c>
+      <c r="W5" s="35">
+        <v>0.84164103864999995</v>
+      </c>
+      <c r="X5" s="34">
+        <v>0.14308823644999999</v>
+      </c>
+      <c r="Y5" s="35">
+        <v>0.81677094101905001</v>
+      </c>
+      <c r="Z5" s="25">
+        <v>3.4540437161922399E-2</v>
+      </c>
+      <c r="AA5" s="19">
+        <v>0.95125894248485499</v>
+      </c>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="25">
+        <v>0.12092436105012799</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>0.82437068223953003</v>
+      </c>
+      <c r="AE5" s="25">
+        <v>0.108708404004573</v>
+      </c>
+      <c r="AF5" s="18">
+        <v>0.86214593052863997</v>
+      </c>
+      <c r="AG5" s="25">
+        <v>0.15590612590312899</v>
+      </c>
+      <c r="AH5" s="18">
+        <v>0.78898789999999996</v>
+      </c>
+      <c r="AI5" s="24">
+        <v>0.101453483104</v>
+      </c>
+      <c r="AJ5" s="18">
+        <v>0.86931020020000005</v>
+      </c>
+      <c r="AK5" s="24">
+        <v>0.1449728161096</v>
+      </c>
+      <c r="AL5" s="18">
+        <v>0.79563969300000004</v>
+      </c>
+      <c r="AM5" s="24">
+        <v>3.8458950817584901E-2</v>
+      </c>
+      <c r="AN5" s="18">
+        <v>0.94577697291970197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="A6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="34">
+        <v>0.16723307967100001</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0.73525458574199998</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0.10033921897411301</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0.83050428330898196</v>
+      </c>
+      <c r="F6" s="34">
+        <v>0.122239269316196</v>
+      </c>
+      <c r="G6" s="35">
+        <v>0.79578450000000001</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0.11165302000000001</v>
+      </c>
+      <c r="I6" s="35">
+        <v>0.81183090000000002</v>
+      </c>
+      <c r="J6" s="34">
+        <v>0.113693304359912</v>
+      </c>
+      <c r="K6" s="35">
+        <v>0.791723012924194</v>
+      </c>
+      <c r="L6" s="24">
+        <v>8.1874050199985504E-2</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0.86729361116886095</v>
+      </c>
+      <c r="N6" s="24">
+        <v>7.3891356587409904E-2</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0.88726866245269698</v>
+      </c>
+      <c r="P6" s="36">
+        <v>9.2263049999999999E-2</v>
+      </c>
+      <c r="Q6" s="35">
+        <v>0.85352219600000001</v>
+      </c>
+      <c r="R6" s="36">
+        <v>0.10749169</v>
+      </c>
+      <c r="S6" s="35">
+        <v>0.82167576253410002</v>
+      </c>
+      <c r="T6" s="36">
+        <v>0.107661783695</v>
+      </c>
+      <c r="U6" s="35">
+        <v>0.82104925811200002</v>
+      </c>
+      <c r="V6" s="34">
+        <v>0.109831638634</v>
+      </c>
+      <c r="W6" s="35">
+        <v>0.80788053500000001</v>
+      </c>
+      <c r="X6" s="34">
+        <v>0.14879184961299999</v>
+      </c>
+      <c r="Y6" s="35">
+        <v>0.72613963484763999</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>7.4802897870540605E-2</v>
+      </c>
+      <c r="AA6" s="19">
+        <v>0.88121253997087401</v>
+      </c>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="25">
+        <v>0.11857938021421401</v>
+      </c>
+      <c r="AD6" s="18">
+        <v>0.80389870703220301</v>
+      </c>
+      <c r="AE6" s="25">
+        <v>0.113994367420673</v>
+      </c>
+      <c r="AF6" s="18">
+        <v>0.80826750397682101</v>
+      </c>
+      <c r="AG6" s="25">
+        <v>0.16985012590885101</v>
+      </c>
+      <c r="AH6" s="18">
+        <v>0.72256946563720004</v>
+      </c>
+      <c r="AI6" s="24">
+        <v>9.9688313901419995E-2</v>
+      </c>
+      <c r="AJ6" s="18">
+        <v>0.83431661128000001</v>
+      </c>
+      <c r="AK6" s="24">
+        <v>0.16949178277999999</v>
+      </c>
+      <c r="AL6" s="18">
+        <v>0.72339183092000003</v>
+      </c>
+      <c r="AM6" s="24">
+        <v>7.5431354343891102E-2</v>
+      </c>
+      <c r="AN6" s="18">
+        <v>0.87959731370210603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="34">
+        <v>0.133199468255043</v>
+      </c>
+      <c r="C7" s="35">
+        <v>0.73920002578999999</v>
+      </c>
+      <c r="D7" s="34">
+        <v>0.10043106973171199</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0.788445904850959</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0.111689724</v>
+      </c>
+      <c r="G7" s="35">
+        <v>0.78827580799999997</v>
+      </c>
+      <c r="H7" s="34">
+        <v>0.122862361371</v>
+      </c>
+      <c r="I7" s="35">
+        <v>0.77806721619999997</v>
+      </c>
+      <c r="J7" s="34">
+        <v>9.4576179981231606E-2</v>
+      </c>
+      <c r="K7" s="35">
+        <v>0.81184335052967005</v>
+      </c>
+      <c r="L7" s="24">
+        <v>6.4963176846504198E-2</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0.875684954226017</v>
+      </c>
+      <c r="N7" s="24">
+        <v>5.8046750724315602E-2</v>
+      </c>
+      <c r="O7" s="18">
+        <v>0.89453125</v>
+      </c>
+      <c r="P7" s="36">
+        <v>8.3286499999999999E-2</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>0.84035529099999995</v>
+      </c>
+      <c r="R7" s="36">
+        <v>9.74013954401E-2</v>
+      </c>
+      <c r="S7" s="35">
+        <v>0.78341332077000003</v>
+      </c>
+      <c r="T7" s="36">
+        <v>9.8485887050628607E-2</v>
+      </c>
+      <c r="U7" s="35">
+        <v>0.80707454681396396</v>
+      </c>
+      <c r="V7" s="34">
+        <v>0.10039443522690999</v>
+      </c>
+      <c r="W7" s="35">
+        <v>0.80343285202000003</v>
+      </c>
+      <c r="X7" s="34">
+        <v>0.12661734223359999</v>
+      </c>
+      <c r="Y7" s="35">
+        <v>0.75709438323973999</v>
+      </c>
+      <c r="Z7" s="25">
+        <v>5.9486769139766603E-2</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>0.89041186124086302</v>
+      </c>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="25">
+        <v>0.12697356939315699</v>
+      </c>
+      <c r="AD7" s="18">
+        <v>0.77919699251651697</v>
+      </c>
+      <c r="AE7" s="25">
+        <v>0.122266568243503</v>
+      </c>
+      <c r="AF7" s="18">
+        <v>0.77953904867172197</v>
+      </c>
+      <c r="AG7" s="25">
+        <v>0.17067067299999999</v>
+      </c>
+      <c r="AH7" s="18">
+        <v>0.69146668909999998</v>
+      </c>
+      <c r="AI7" s="24">
+        <v>9.5127291000000003E-2</v>
+      </c>
+      <c r="AJ7" s="18">
+        <v>0.80348704000000004</v>
+      </c>
+      <c r="AK7" s="24">
+        <v>0.16574954986570001</v>
+      </c>
+      <c r="AL7" s="18">
+        <v>0.70670378</v>
+      </c>
+      <c r="AM7" s="24">
+        <v>6.40105530619621E-2</v>
+      </c>
+      <c r="AN7" s="18">
+        <v>0.87997679412364904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="U8" s="38"/>
+      <c r="AH8" s="23"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="U9" s="38"/>
+      <c r="AH9" s="23"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="U10" s="38"/>
+      <c r="AH10" s="23"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.4">
+      <c r="U11" s="38"/>
+      <c r="AH11" s="23"/>
+    </row>
+    <row r="18" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M18" s="27"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M19" s="27"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M20" s="27"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="17"/>
+    </row>
+    <row r="21" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M21" s="27"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M22" s="27"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M23" s="27"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="17"/>
+    </row>
+    <row r="24" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M24" s="27"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M25" s="27"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="22"/>
+    </row>
+    <row r="26" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M26" s="27"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M27" s="27"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M28" s="27"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="17"/>
+    </row>
+    <row r="29" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M29" s="27"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="17"/>
+    </row>
+    <row r="30" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M30" s="27"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="17"/>
+    </row>
+    <row r="31" spans="13:15" x14ac:dyDescent="0.4">
+      <c r="M31" s="27"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B3C1AE-2092-4ED3-9AC2-44CE9D191A78}">
   <dimension ref="A1:AW12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4106,108 +5070,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="47">
+      <c r="B1" s="49">
         <v>0.4</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49">
         <v>0.4</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49">
         <v>0.4</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49">
         <v>0.4</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49">
         <v>0.4</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49">
         <v>0.4</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47">
+      <c r="M1" s="49"/>
+      <c r="N1" s="49">
         <v>0.6</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47">
+      <c r="O1" s="49"/>
+      <c r="P1" s="49">
         <v>0.6</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47">
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49">
         <v>0.6</v>
       </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47">
+      <c r="S1" s="49"/>
+      <c r="T1" s="49">
         <v>0.6</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47">
+      <c r="U1" s="49"/>
+      <c r="V1" s="49">
         <v>0.6</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47">
+      <c r="W1" s="49"/>
+      <c r="X1" s="49">
         <v>0.6</v>
       </c>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47">
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49">
         <v>0.8</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49">
         <v>0.8</v>
       </c>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49">
         <v>0.8</v>
       </c>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47">
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49">
         <v>0.8</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47">
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49">
         <v>0.8</v>
       </c>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49">
         <v>0.8</v>
       </c>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47">
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49">
         <v>1</v>
       </c>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47">
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49">
         <v>1</v>
       </c>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47">
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49">
         <v>1</v>
       </c>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47">
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49">
         <v>1</v>
       </c>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47">
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49">
         <v>1</v>
       </c>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="47">
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49">
         <v>1</v>
       </c>
-      <c r="AW1" s="47"/>
+      <c r="AW1" s="49"/>
     </row>
     <row r="2" spans="1:49" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="49"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
@@ -5184,6 +6148,19 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
@@ -5196,19 +6173,6 @@
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
